--- a/data/trans_dic/P3A$otraSIcobraNOhogar-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobraNOhogar-Edad-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.02256731771584505</v>
+        <v>0.0211473808619187</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01033790560259049</v>
+        <v>0.009909761033529828</v>
       </c>
     </row>
     <row r="7">
@@ -647,11 +647,11 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03962400436573012</v>
+        <v>0.03292697410944789</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.02210938855965129</v>
+        <v>0.02317892448205955</v>
       </c>
     </row>
     <row r="10">
@@ -672,7 +672,7 @@
         <v>0.001140032272566181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.002236526496506297</v>
+        <v>0.002236526496506296</v>
       </c>
     </row>
     <row r="11">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0005662429211369616</v>
+        <v>0.0005685338032596485</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01196092501846083</v>
+        <v>0.01142671708789226</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.005687873168749233</v>
+        <v>0.005703403395780453</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.006398755237712129</v>
+        <v>0.006501446433668181</v>
       </c>
     </row>
     <row r="13">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.009903073750494169</v>
+        <v>0.009903073750494167</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.005106629000373626</v>
+        <v>0.005106629000373625</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.007445443450391625</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004715852783038937</v>
+        <v>0.004215113614326713</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001869110306818571</v>
+        <v>0.00228135039100443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004080676862561466</v>
+        <v>0.003983508404970362</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02053304332846007</v>
+        <v>0.02101761938895341</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01108986114573191</v>
+        <v>0.01174136129871371</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01245146756893151</v>
+        <v>0.01251539525943477</v>
       </c>
     </row>
     <row r="16">
@@ -779,7 +779,7 @@
         <v>0.01568030486399774</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.004860001678865398</v>
+        <v>0.0048600016788654</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.01027233404274327</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007781373840343727</v>
+        <v>0.007332823614921121</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001896688345603758</v>
+        <v>0.001629827174663295</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005690886024231884</v>
+        <v>0.005800728063854251</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02885603499833379</v>
+        <v>0.02883843170045375</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01087769586628865</v>
+        <v>0.01003175183849969</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01707052999436914</v>
+        <v>0.01738527533369403</v>
       </c>
     </row>
     <row r="19">
@@ -834,7 +834,7 @@
         <v>0.01509542869916254</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.02454740795577872</v>
+        <v>0.02454740795577871</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.02000389801210941</v>
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.007496400583350674</v>
+        <v>0.00772125864938965</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01552329213122917</v>
+        <v>0.0155279211461861</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01321266794237303</v>
+        <v>0.01377091783086307</v>
       </c>
     </row>
     <row r="21">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02762789947761022</v>
+        <v>0.02983106233129124</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03716135557918049</v>
+        <v>0.03780705697433381</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02813514813088306</v>
+        <v>0.02917058449007411</v>
       </c>
     </row>
     <row r="22">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08243761297243429</v>
+        <v>0.07844590254969504</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1254563753022983</v>
+        <v>0.1253366558319595</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1139560839348659</v>
+        <v>0.114367341031745</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1391149955893237</v>
+        <v>0.1390491455129483</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1741927456794686</v>
+        <v>0.1735348247281998</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1504459861469032</v>
+        <v>0.1504839510971583</v>
       </c>
     </row>
     <row r="25">
@@ -947,7 +947,7 @@
         <v>0.02369516945917878</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.02069073089525288</v>
+        <v>0.02069073089525289</v>
       </c>
     </row>
     <row r="26">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01378056500794678</v>
+        <v>0.01407916786205429</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02026599933833883</v>
+        <v>0.02040324928141576</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0180989167348881</v>
+        <v>0.01799742098249282</v>
       </c>
     </row>
     <row r="27">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02230196074124071</v>
+        <v>0.02295733407109047</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02774028896986102</v>
+        <v>0.02794532562455269</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0237695192801975</v>
+        <v>0.02356427663386767</v>
       </c>
     </row>
     <row r="28">
@@ -1142,10 +1142,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>8181</v>
+        <v>7666</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7963</v>
+        <v>7634</v>
       </c>
     </row>
     <row r="8">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18896</v>
+        <v>15703</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>21637</v>
+        <v>22683</v>
       </c>
     </row>
     <row r="12">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7426</v>
+        <v>7094</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3545</v>
+        <v>3554</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7960</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="16">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3304</v>
+        <v>2953</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1376</v>
+        <v>1680</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5863</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="19">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14386</v>
+        <v>14725</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8164</v>
+        <v>8644</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17891</v>
+        <v>17982</v>
       </c>
     </row>
     <row r="20">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4742</v>
+        <v>4468</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1155</v>
+        <v>992</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6933</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="23">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>17583</v>
+        <v>17573</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6623</v>
+        <v>6108</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20795</v>
+        <v>21179</v>
       </c>
     </row>
     <row r="24">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3043</v>
+        <v>3135</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6808</v>
+        <v>6811</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11159</v>
+        <v>11631</v>
       </c>
     </row>
     <row r="27">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11217</v>
+        <v>12111</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>16299</v>
+        <v>16582</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>23762</v>
+        <v>24637</v>
       </c>
     </row>
     <row r="28">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>25572</v>
+        <v>24334</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>58288</v>
+        <v>58233</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>88294</v>
+        <v>88613</v>
       </c>
     </row>
     <row r="31">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>43153</v>
+        <v>43133</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>80932</v>
+        <v>80626</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>116567</v>
+        <v>116596</v>
       </c>
     </row>
     <row r="32">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>48668</v>
+        <v>49723</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>75708</v>
+        <v>76221</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>131532</v>
+        <v>130794</v>
       </c>
     </row>
     <row r="35">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>78763</v>
+        <v>81078</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>103630</v>
+        <v>104396</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>172742</v>
+        <v>171251</v>
       </c>
     </row>
     <row r="36">
